--- a/biology/Botanique/Abrodictyum_stylosum/Abrodictyum_stylosum.xlsx
+++ b/biology/Botanique/Abrodictyum_stylosum/Abrodictyum_stylosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abrodictyum stylosum est une fougère de la famille des Hyménophyllacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus des caractéristiques du genre, cette espèce a les caractéristiques suivantes :
 les frondes peuvent atteindre 45 centimètres ;
@@ -546,7 +560,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Abrodictyum stylosum est une espèce terrestre qui se trouve à Madagascar et dans les îles Mascareignes (La Réunion, Maurice).
 </t>
@@ -577,13 +593,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1808, Jean Louis Marie Poiret décrit cette espèce à partir d'un échantillon collecté par Louis-Marie Aubert du Petit-Thouars à Madagascar sous le nom de Trichomanes stylosum - Trichomanes à long style[1].
-En 1938, Edwin Bingham Copeland la transfère dans le genre Selenodesmium : Selenodesmium stylosum (Poir.) Copel.[2].
-En 1974, Conrad Vernon Morton la place dans la section Pachychaetum du sous-genre Pachychaetum du genre Trichommanes[3].
-En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito indiquent que son classement devrait être dans le sous-genre Pachychaetum du genre Abrodictum sans toutefois opérer une nouvelle combinaison[4].
-C'est en 2009 que Jacobus Petrus Roux opère le reclassement dans le genre Abrodictyum[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1808, Jean Louis Marie Poiret décrit cette espèce à partir d'un échantillon collecté par Louis-Marie Aubert du Petit-Thouars à Madagascar sous le nom de Trichomanes stylosum - Trichomanes à long style.
+En 1938, Edwin Bingham Copeland la transfère dans le genre Selenodesmium : Selenodesmium stylosum (Poir.) Copel..
+En 1974, Conrad Vernon Morton la place dans la section Pachychaetum du sous-genre Pachychaetum du genre Trichommanes.
+En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito indiquent que son classement devrait être dans le sous-genre Pachychaetum du genre Abrodictum sans toutefois opérer une nouvelle combinaison.
+C'est en 2009 que Jacobus Petrus Roux opère le reclassement dans le genre Abrodictyum.
 </t>
         </is>
       </c>
@@ -612,13 +630,15 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cette espèce appartient au sous-genre Abrodictyum du genre Pachychaetum.
 Elle compte de nombreux synonymes. Il y a d'abord ceux liés aux réorganisations de la famille :
 Trichomanes stylosum Poir.
 Selenodesmium stylosum (Poir.) Copel.
-puis ceux liés aux descriptions parallèles [6]:
+puis ceux liés aux descriptions parallèles :
 Trichomanes achilleifolium Bory. ex Willd.
 Trichomanes alchemillifolium Telfair ex Wall.
 Trichomanes thuioides Desv.</t>
